--- a/html/modules/custom/ocha_assessments/bulk_template.xlsx
+++ b/html/modules/custom/ocha_assessments/bulk_template.xlsx
@@ -645,9 +645,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -851,7 +852,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -859,7 +860,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,7 +888,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -895,7 +896,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,7 +916,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -944,26 +945,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048544" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -1299,17 +1300,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J9:J1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1322,17 +1323,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J9:J1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1345,17 +1346,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="J9:J1048576 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="18.66"/>
   </cols>
@@ -1392,17 +1393,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="J9:J1048576 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
@@ -1441,17 +1442,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="J9:J1048576 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
@@ -1485,17 +1486,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J9:J1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
@@ -1564,17 +1565,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J9:J1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22"/>
@@ -1669,17 +1670,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J9:J1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1692,17 +1693,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J9:J1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1715,17 +1716,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J9:J1048576 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
